--- a/Docs/Reports/TPS/TPS Report Main Project [10] - Sept 14 - Sept 20.xlsx
+++ b/Docs/Reports/TPS/TPS Report Main Project [10] - Sept 14 - Sept 20.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>Set Date:</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>Marcel Englmaier, Justing Koehler, Jason Pearson</t>
+  </si>
+  <si>
+    <t>Re-Write website using Ruby on Rails</t>
+  </si>
+  <si>
+    <t>40 Hours</t>
   </si>
 </sst>
 </file>
@@ -438,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -583,6 +589,26 @@
         <v>10</v>
       </c>
     </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
